--- a/data/georgia_census/shida-qartli/qareli/average_wages.xlsx
+++ b/data/georgia_census/shida-qartli/qareli/average_wages.xlsx
@@ -1106,13 +1106,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CDF4EA5-9C6F-426E-B803-0497265B02A0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CBA871DB-FCB6-413F-BEAD-8E25BF7C94C0}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EB6BA1A-FB1B-4918-8A69-5A7664AD1CED}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{471C9157-4883-4C1B-B35B-EC6124C3CB07}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7574035B-363E-4650-AD81-54A4E9F52127}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9EF283A-C976-4184-A89F-FA597A4782A4}"/>
 </file>